--- a/data/diarias.xlsx
+++ b/data/diarias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
   <si>
     <t>Data e hora de início</t>
   </si>
@@ -52,12 +52,27 @@
     <t>2025-03-28 10:30:00</t>
   </si>
   <si>
+    <t>2025-04-03 12:19:00</t>
+  </si>
+  <si>
+    <t>2025-04-04 12:19:00</t>
+  </si>
+  <si>
     <t>2025-03-28 23:30:00</t>
   </si>
   <si>
+    <t>2025-04-03 18:19:00</t>
+  </si>
+  <si>
+    <t>2025-04-04 18:19:00</t>
+  </si>
+  <si>
     <t>Cantina Volpi - Paralela</t>
   </si>
   <si>
+    <t>Cantina Volpi Lauro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jadson Santana </t>
   </si>
   <si>
@@ -82,7 +97,10 @@
     <t xml:space="preserve">Diego Silva Deveza </t>
   </si>
   <si>
-    <t>7140787514</t>
+    <t xml:space="preserve">Adeilton Ferreira Souza </t>
+  </si>
+  <si>
+    <t>1995263540</t>
   </si>
   <si>
     <t>N</t>
@@ -443,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,16 +504,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>10292914547</v>
@@ -507,10 +525,10 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -518,16 +536,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>86299393548</v>
@@ -539,10 +557,10 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -553,13 +571,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>3885511517</v>
@@ -571,10 +589,10 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -582,16 +600,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>86380163522</v>
@@ -603,10 +621,10 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -614,16 +632,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>11437755542</v>
@@ -635,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -649,13 +667,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>8953581583</v>
@@ -667,10 +685,10 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -681,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>86714745508</v>
@@ -699,10 +717,10 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -713,16 +731,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>7140787514</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -731,10 +749,74 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>1995263540</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/diarias.xlsx
+++ b/data/diarias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Data e hora de início</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2025-04-04 12:19:00</t>
   </si>
   <si>
+    <t>2025-03-19 15:17:00</t>
+  </si>
+  <si>
     <t>2025-03-28 23:30:00</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>2025-04-04 18:19:00</t>
   </si>
   <si>
+    <t>2025-03-19 21:17:00</t>
+  </si>
+  <si>
     <t>Cantina Volpi - Paralela</t>
   </si>
   <si>
@@ -100,7 +106,10 @@
     <t xml:space="preserve">Adeilton Ferreira Souza </t>
   </si>
   <si>
-    <t>1995263540</t>
+    <t xml:space="preserve">Adilton Brito Viana </t>
+  </si>
+  <si>
+    <t>3385937566</t>
   </si>
   <si>
     <t>N</t>
@@ -461,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +513,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>10292914547</v>
@@ -525,10 +534,10 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -536,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>86299393548</v>
@@ -557,10 +566,10 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -571,13 +580,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>3885511517</v>
@@ -589,10 +598,10 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -600,16 +609,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>86380163522</v>
@@ -621,10 +630,10 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -632,16 +641,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>11437755542</v>
@@ -653,10 +662,10 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -667,13 +676,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>8953581583</v>
@@ -685,10 +694,10 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -699,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>86714745508</v>
@@ -717,10 +726,10 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -731,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>7140787514</v>
@@ -749,10 +758,10 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -760,16 +769,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>1995263540</v>
@@ -781,10 +790,10 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -792,19 +801,19 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>1995263540</v>
       </c>
       <c r="G11">
         <v>55</v>
@@ -813,10 +822,42 @@
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/diarias.xlsx
+++ b/data/diarias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zapy Pizza\Documents\app-veloci\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09b97292cfc54d46/Documentos/programação/Moab/app-veloci/app-veloci/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284B841-C94D-4514-B8C0-5CEAA0E6E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_25A52A019C4E5C0E62355476585DCE3A87470D9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535DB790-450A-4FE2-B314-70CF8F2414AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
   <si>
     <t>Data e hora de início</t>
   </si>
@@ -52,19 +52,85 @@
     <t>Taxa mínima entregador</t>
   </si>
   <si>
+    <t>usuario_registro</t>
+  </si>
+  <si>
+    <t>2025-04-07 10:18:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 19:13:00</t>
+  </si>
+  <si>
+    <t>Carvão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adson melo de oliveira </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Moab</t>
+  </si>
+  <si>
+    <t>2025-04-07 11:00:00</t>
+  </si>
+  <si>
     <t>2025-04-07 18:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Adeilton Ferreira Souza </t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>2025-04-07 11:01:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 18:01:00</t>
+  </si>
+  <si>
+    <t>Pizza Hut Ondina</t>
+  </si>
+  <si>
+    <t>Adriano Almeida Mota</t>
+  </si>
+  <si>
+    <t>2025-04-07 12:54:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 17:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian de Araujo Braga </t>
+  </si>
+  <si>
+    <t>2025-04-07 13:34:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 19:19:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 13:53:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 19:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adilton Brito Viana </t>
+  </si>
+  <si>
     <t>2025-04-07 23:00:00</t>
   </si>
   <si>
-    <t>Carvão</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jonatas santos das neves </t>
   </si>
   <si>
-    <t>N</t>
+    <t>2025-04-07 20:03:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 23:19:00</t>
   </si>
   <si>
     <t>2025-04-09 18:00:00</t>
@@ -112,20 +178,23 @@
     <t xml:space="preserve">Ronivaldo de Jesus dos Santos </t>
   </si>
   <si>
-    <t>776538586</t>
-  </si>
-  <si>
-    <t>usuario_registro</t>
-  </si>
-  <si>
-    <t>Rafael</t>
+    <t>2025-04-07 10:15:00</t>
+  </si>
+  <si>
+    <t>2025-04-07 14:23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aelson Santos Santana Júnior </t>
+  </si>
+  <si>
+    <t>86846235507</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,12 +206,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,12 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,27 +550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,238 +589,238 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>7739717509</v>
+        <v>10854757511</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>98.08</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>62.42</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>1995263540</v>
+      </c>
+      <c r="G3">
+        <v>77</v>
+      </c>
+      <c r="H3">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>3727233575</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>7664968569</v>
+      </c>
+      <c r="G5">
+        <v>55.18</v>
+      </c>
+      <c r="H5">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>7739717509</v>
-      </c>
-      <c r="G3">
-        <v>55</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>86265918532</v>
-      </c>
-      <c r="G4">
-        <v>55</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>7739717509</v>
-      </c>
-      <c r="G5">
-        <v>55</v>
-      </c>
-      <c r="H5">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6">
-        <v>86265918532</v>
+        <v>1995263540</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>63.25</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>40.25</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
       <c r="F7">
+        <v>3385937566</v>
+      </c>
+      <c r="G7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H7">
+        <v>42.7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
         <v>7739717509</v>
-      </c>
-      <c r="G7">
-        <v>55</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>86265918532</v>
       </c>
       <c r="G8">
         <v>55</v>
@@ -779,68 +829,68 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9">
+        <v>1995263540</v>
+      </c>
+      <c r="G9">
+        <v>35.93</v>
+      </c>
+      <c r="H9">
+        <v>22.87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
         <v>7739717509</v>
-      </c>
-      <c r="G9">
-        <v>55</v>
-      </c>
-      <c r="H9">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>86265918532</v>
       </c>
       <c r="G10">
         <v>55</v>
@@ -849,87 +899,366 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F11">
+        <v>86265918532</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>86265918532</v>
+      </c>
+      <c r="G12">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>7739717509</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>7739717509</v>
+      </c>
+      <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>86265918532</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16">
         <v>80109306520</v>
       </c>
-      <c r="G11">
+      <c r="G16">
         <v>40</v>
       </c>
-      <c r="H11">
+      <c r="H16">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>776538586</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
         <v>30</v>
       </c>
-      <c r="G12">
-        <v>40</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>7739717509</v>
+      </c>
+      <c r="G18">
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19">
+        <v>86265918532</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>45.47</v>
+      </c>
+      <c r="H20">
+        <v>28.93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="256" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/diarias.xlsx
+++ b/data/diarias.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zapy Pizza\Documents\app-veloci\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8373B8E-3392-433E-95EC-6160088EDCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Data e hora de início</t>
-  </si>
-  <si>
-    <t>Data e hora de fim</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Tipo Veiculo</t>
-  </si>
-  <si>
-    <t>Entregador</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>Taxa total cobrada</t>
-  </si>
-  <si>
-    <t>Taxa total entregador</t>
-  </si>
-  <si>
-    <t>Taxa mínima cobrada</t>
-  </si>
-  <si>
-    <t>Taxa mínima entregador</t>
-  </si>
-  <si>
-    <t>usuario_registro</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,48 +420,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="A2:L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data e hora de início</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data e hora de fim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo Veiculo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Entregador</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Taxa total cobrada</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Taxa total entregador</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>usuario_registro</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Taxa mínima cobrada</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Taxa mínima entregador</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-14 18:00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-06-14 23:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osvaldo Ferreira de jesus </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>57714312572</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-15 11:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osvaldo Ferreira de jesus </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>56</v>
+      </c>
+      <c r="G3" t="n">
+        <v>42</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>57714312572</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-15 11:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">João dos Santos Filho </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>56</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>56623224572</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-15 11:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Paulo De Araújo Silva</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>56</v>
+      </c>
+      <c r="G5" t="n">
+        <v>42</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>51253860572</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-15 23:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel Silva Sena </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1685395511</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-15 23:00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">João dos Santos Filho </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>56623224572</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-06-15 23:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Paulo De Araújo Silva</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>51253860572</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-06-15 23:00:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osvaldo Ferreira de jesus </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>57714312572</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-10 18:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-06-10 23:00:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cheiro de Pizza</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osvaldo Ferreira de jesus </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Marcos</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>57714312572</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
   </sheetData>
